--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43832</v>
+      </c>
+      <c r="E7" s="2">
         <v>43771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43491</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43309</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42581</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E8" s="3">
         <v>22700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17000</v>
+        <v>15300</v>
       </c>
       <c r="E9" s="3">
         <v>17000</v>
       </c>
       <c r="F9" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G9" s="3">
         <v>14400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>7400</v>
       </c>
       <c r="P10" s="3">
         <v>7400</v>
       </c>
       <c r="Q10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R10" s="3">
         <v>5300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E17" s="3">
         <v>21500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1297,7 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1293,10 +1327,13 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,19 +1382,22 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1365,11 +1405,11 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1377,11 +1417,11 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1389,114 +1429,123 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1000</v>
       </c>
       <c r="P24" s="3">
         <v>1000</v>
       </c>
       <c r="Q24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1715,14 +1776,14 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>400</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1863,7 +1933,7 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1893,60 +1963,66 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43832</v>
+      </c>
+      <c r="E38" s="2">
         <v>43771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43491</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43309</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43127</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42581</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,84 +2226,88 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E41" s="3">
         <v>13600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>28100</v>
       </c>
       <c r="N41" s="3">
         <v>28100</v>
       </c>
       <c r="O41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="P41" s="3">
         <v>23400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E42" s="3">
         <v>10900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2200</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>500</v>
@@ -2226,13 +2316,13 @@
         <v>500</v>
       </c>
       <c r="N42" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O42" s="3">
         <v>400</v>
       </c>
       <c r="P42" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q42" s="3">
         <v>500</v>
@@ -2240,243 +2330,258 @@
       <c r="R42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E43" s="3">
         <v>14200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="E44" s="3">
         <v>19800</v>
       </c>
       <c r="F44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G44" s="3">
         <v>16100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>19600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>24900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>55900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E46" s="3">
         <v>59300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>59800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>59300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>59100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>59800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>59400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>60000</v>
       </c>
       <c r="N46" s="3">
         <v>60000</v>
       </c>
       <c r="O46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="P46" s="3">
         <v>58300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>58000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>58200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7900</v>
-      </c>
-      <c r="E47" s="3">
-        <v>7800</v>
       </c>
       <c r="F47" s="3">
         <v>7800</v>
       </c>
       <c r="G47" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="H47" s="3">
         <v>7600</v>
       </c>
       <c r="I47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J47" s="3">
         <v>7700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7200</v>
       </c>
       <c r="O47" s="3">
         <v>7200</v>
@@ -2485,63 +2590,69 @@
         <v>7200</v>
       </c>
       <c r="Q47" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="R47" s="3">
         <v>7100</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2708,13 +2828,13 @@
         <v>2300</v>
       </c>
       <c r="H52" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="I52" s="3">
         <v>3400</v>
       </c>
       <c r="J52" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="K52" s="3">
         <v>2300</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E54" s="3">
         <v>78700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>79400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>80800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>80400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>79300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>81600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>80000</v>
       </c>
       <c r="N54" s="3">
         <v>80000</v>
       </c>
       <c r="O54" s="3">
+        <v>80000</v>
+      </c>
+      <c r="P54" s="3">
         <v>78400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2500</v>
       </c>
       <c r="M57" s="3">
         <v>2500</v>
       </c>
       <c r="N57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1800</v>
       </c>
       <c r="J59" s="3">
         <v>1800</v>
       </c>
       <c r="K59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,46 +3288,49 @@
         <v>700</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
       </c>
       <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>2300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E72" s="3">
         <v>71700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>71000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>71800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>71700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>72000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>72600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>73200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>71800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>71400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>71000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>69700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>68500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E76" s="3">
         <v>74000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>73300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>75200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43832</v>
+      </c>
+      <c r="E80" s="2">
         <v>43771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43491</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43309</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43127</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42581</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4422,31 +4643,34 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E94" s="3">
         <v>2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4633,10 +4867,10 @@
         <v>-300</v>
       </c>
       <c r="H96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-300</v>
       </c>
       <c r="J96" s="3">
         <v>-300</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,25 +5070,25 @@
         <v>-300</v>
       </c>
       <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-300</v>
       </c>
       <c r="G100" s="3">
         <v>-300</v>
       </c>
       <c r="H100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-300</v>
       </c>
       <c r="L100" s="3">
         <v>-300</v>
@@ -4851,10 +5097,10 @@
         <v>-300</v>
       </c>
       <c r="N100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O100" s="3">
         <v>-900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-300</v>
       </c>
       <c r="P100" s="3">
         <v>-300</v>
@@ -4863,10 +5109,13 @@
         <v>-300</v>
       </c>
       <c r="R100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F7" s="2">
         <v>43832</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43491</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43309</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43218</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43127</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42581</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F8" s="3">
         <v>20300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>22700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>22200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>18600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>20700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>16200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>20500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>22400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>22200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>24100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>28100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>29900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>23100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F9" s="3">
         <v>15300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>17000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>17000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>14400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>16200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>15500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>16200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>17200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>18300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>20700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>22500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>17800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>6200</v>
       </c>
       <c r="N10" s="3">
         <v>5000</v>
       </c>
       <c r="O10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>5800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="3">
         <v>19700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>21400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>18200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>20700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>19500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>19900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>20400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>21200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>22300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>25500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>27500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>22500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1345,18 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1300,10 +1368,10 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1330,10 +1398,16 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,167 +1459,191 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>800</v>
-      </c>
       <c r="N24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>800</v>
       </c>
       <c r="P24" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>800</v>
+      </c>
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1300</v>
       </c>
       <c r="N26" s="3">
         <v>700</v>
       </c>
       <c r="O26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1300</v>
       </c>
       <c r="N27" s="3">
         <v>700</v>
       </c>
       <c r="O27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,40 +1872,46 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>400</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +2049,22 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1936,10 +2076,10 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1966,63 +2106,75 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>900</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>900</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>700</v>
-      </c>
       <c r="M33" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>700</v>
       </c>
       <c r="O33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>900</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>900</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>700</v>
-      </c>
       <c r="M35" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>700</v>
       </c>
       <c r="O35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F38" s="2">
         <v>43832</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43491</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43309</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43218</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43127</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42581</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,349 +2399,387 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F41" s="3">
         <v>17300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>20400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>19200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>27600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>33900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>32300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>29200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>28100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>28100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>16600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>15700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F42" s="3">
         <v>7200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>10900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>13200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>12100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>9500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2200</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>500</v>
-      </c>
       <c r="M42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <v>500</v>
       </c>
       <c r="O42" s="3">
+        <v>500</v>
+      </c>
+      <c r="P42" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q42" s="3">
         <v>400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>400</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>500</v>
-      </c>
-      <c r="R42" s="3">
-        <v>500</v>
       </c>
       <c r="S42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>500</v>
+      </c>
+      <c r="U42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F43" s="3">
         <v>14600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>14200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>14500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>11800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>11000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>13900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>25000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>12300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>14500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>15400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>13600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F44" s="3">
         <v>19500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>19800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>16100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>15500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>17900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>18400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>14000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>13300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>17400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>18300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>18900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>19600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>24900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>55900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>2600</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F46" s="3">
         <v>59200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>59300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>59800</v>
       </c>
       <c r="G46" s="3">
         <v>59300</v>
       </c>
       <c r="H46" s="3">
+        <v>59800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>59300</v>
+      </c>
+      <c r="J46" s="3">
         <v>59100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>59800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>60200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>59400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>59200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>61500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>60000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>60000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>58300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>58000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>58200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F47" s="3">
         <v>8000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>7800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>7800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>7600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7700</v>
       </c>
       <c r="K47" s="3">
         <v>7600</v>
@@ -2578,60 +2788,66 @@
         <v>7700</v>
       </c>
       <c r="M47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="N47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O47" s="3">
         <v>7500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7400</v>
-      </c>
-      <c r="O47" s="3">
-        <v>7200</v>
-      </c>
-      <c r="P47" s="3">
-        <v>7200</v>
       </c>
       <c r="Q47" s="3">
         <v>7200</v>
       </c>
       <c r="R47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="T47" s="3">
         <v>7100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F48" s="3">
         <v>6300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>7200</v>
       </c>
       <c r="L48" s="3">
         <v>7400</v>
       </c>
       <c r="M48" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="N48" s="3">
         <v>7400</v>
@@ -2640,19 +2856,25 @@
         <v>7600</v>
       </c>
       <c r="P48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="R48" s="3">
         <v>7800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2831,16 +3071,16 @@
         <v>2300</v>
       </c>
       <c r="I52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2300</v>
       </c>
       <c r="M52" s="3">
         <v>2300</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>76600</v>
+      </c>
+      <c r="F54" s="3">
         <v>78600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>78700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>79400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>78900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>78700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>80800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>80400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>79300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>79400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>81600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>80000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>80000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>78400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>78300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>78600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,114 +3385,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>6200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>5000</v>
       </c>
       <c r="Q60" s="3">
         <v>6200</v>
       </c>
       <c r="R60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T60" s="3">
         <v>7700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,46 +3583,52 @@
         <v>700</v>
       </c>
       <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>700</v>
+      </c>
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>2300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>2300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>6200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>5000</v>
       </c>
       <c r="Q66" s="3">
         <v>6200</v>
       </c>
       <c r="R66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>71100</v>
+      </c>
+      <c r="F72" s="3">
         <v>71900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>71700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>71000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>71800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>71700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>72000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>72600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>72800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>73200</v>
       </c>
       <c r="M72" s="3">
         <v>72800</v>
       </c>
       <c r="N72" s="3">
+        <v>73200</v>
+      </c>
+      <c r="O72" s="3">
+        <v>72800</v>
+      </c>
+      <c r="P72" s="3">
         <v>71800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>71400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>71000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>69700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>68500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>73200</v>
+      </c>
+      <c r="F76" s="3">
         <v>74300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>74000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>73300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>74100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>74000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>74200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>75000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>75200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>75600</v>
       </c>
       <c r="M76" s="3">
         <v>75200</v>
       </c>
       <c r="N76" s="3">
+        <v>75600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>75200</v>
+      </c>
+      <c r="P76" s="3">
         <v>74200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>73800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>73400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>72100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>70900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F80" s="2">
         <v>43832</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43491</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43309</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43218</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43127</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42581</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>900</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>900</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>700</v>
-      </c>
       <c r="M81" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>700</v>
       </c>
       <c r="O81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>7100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4646,31 +5088,37 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F94" s="3">
         <v>3600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-500</v>
       </c>
       <c r="N94" s="3">
         <v>-400</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4870,13 +5338,13 @@
         <v>-300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
       <c r="J96" s="3">
         <v>-300</v>
       </c>
       <c r="K96" s="3">
-        <v>-300</v>
+        <v>-1500</v>
       </c>
       <c r="L96" s="3">
         <v>-300</v>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1600</v>
       </c>
       <c r="G100" s="3">
         <v>-300</v>
       </c>
       <c r="H100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1500</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
       </c>
       <c r="K100" s="3">
-        <v>-400</v>
+        <v>-1500</v>
       </c>
       <c r="L100" s="3">
         <v>-300</v>
       </c>
       <c r="M100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N100" s="3">
         <v>-300</v>
       </c>
       <c r="O100" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="P100" s="3">
         <v>-300</v>
       </c>
       <c r="Q100" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="R100" s="3">
         <v>-300</v>
       </c>
       <c r="S100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>3400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,296 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43832</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43491</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43400</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43309</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43218</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43127</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42581</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F8" s="3">
         <v>12000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>14300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>20300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>22700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>22200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>18600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>20700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>20600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>16200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>22400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>22200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>24100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>28100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>29900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>23100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F9" s="3">
         <v>9900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>17000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>17000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>14400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>16200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>15300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>15500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>16200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>17200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>18300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>20700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>22500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>17800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>6200</v>
       </c>
       <c r="P10" s="3">
         <v>5000</v>
       </c>
       <c r="Q10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S10" s="3">
         <v>5800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1102,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F17" s="3">
         <v>13600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>21500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>21400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>18200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>20700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>19900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>20400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>21200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>22300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>25500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>27500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>22500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,22 +1413,24 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1374,10 +1442,10 @@
         <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1404,10 +1472,16 @@
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,185 +1539,209 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>800</v>
-      </c>
       <c r="P24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>800</v>
       </c>
       <c r="R24" s="3">
+        <v>400</v>
+      </c>
+      <c r="S24" s="3">
+        <v>800</v>
+      </c>
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1300</v>
       </c>
       <c r="P26" s="3">
         <v>700</v>
       </c>
       <c r="Q26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>700</v>
+      </c>
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1300</v>
       </c>
       <c r="P27" s="3">
         <v>700</v>
       </c>
       <c r="Q27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>700</v>
+      </c>
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,46 +1994,52 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>400</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,22 +2189,28 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -2082,10 +2222,10 @@
         <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2112,69 +2252,81 @@
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>900</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>900</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>700</v>
-      </c>
       <c r="O33" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>700</v>
       </c>
       <c r="Q33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>700</v>
+      </c>
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>900</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>900</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>700</v>
-      </c>
       <c r="O35" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>700</v>
       </c>
       <c r="Q35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>700</v>
+      </c>
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43832</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43491</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43400</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43309</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43218</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43127</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42581</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,391 +2573,429 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F41" s="3">
         <v>21000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>17300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>20400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>19200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>27600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>33900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>32300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>29200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>28100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>28100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>23400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>16600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F42" s="3">
         <v>13900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>7200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>10900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>13200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>12100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>7800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2200</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>500</v>
-      </c>
       <c r="O42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <v>500</v>
       </c>
       <c r="Q42" s="3">
+        <v>500</v>
+      </c>
+      <c r="R42" s="3">
+        <v>500</v>
+      </c>
+      <c r="S42" s="3">
         <v>400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>400</v>
-      </c>
-      <c r="S42" s="3">
-        <v>500</v>
-      </c>
-      <c r="T42" s="3">
-        <v>500</v>
       </c>
       <c r="U42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>500</v>
+      </c>
+      <c r="W42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>14600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>14200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>13400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>12400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>14500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>11800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>11000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>13900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>25000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>12300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>14500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>15400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>13600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F44" s="3">
         <v>18300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>18100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>19800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>19800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>16100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>15500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>17900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>18400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>14000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>13300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>17400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>18300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>18900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>19600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>24900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>55900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>2600</v>
       </c>
       <c r="U45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F46" s="3">
         <v>63000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>57500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>59200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>59300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>59800</v>
       </c>
       <c r="I46" s="3">
         <v>59300</v>
       </c>
       <c r="J46" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>59300</v>
+      </c>
+      <c r="L46" s="3">
         <v>59100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>59800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>60200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>59400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>59200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>61500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>60000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>60000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>58300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>58000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>58200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F47" s="3">
         <v>3800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>8000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>7900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>7800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>7800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7600</v>
-      </c>
-      <c r="K47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>7700</v>
       </c>
       <c r="M47" s="3">
         <v>7600</v>
@@ -2794,66 +3004,72 @@
         <v>7700</v>
       </c>
       <c r="O47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Q47" s="3">
         <v>7500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>7200</v>
-      </c>
-      <c r="R47" s="3">
-        <v>7200</v>
       </c>
       <c r="S47" s="3">
         <v>7200</v>
       </c>
       <c r="T47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="U47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="V47" s="3">
         <v>7100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F48" s="3">
         <v>6100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>7400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>7200</v>
       </c>
       <c r="N48" s="3">
         <v>7400</v>
       </c>
       <c r="O48" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="P48" s="3">
         <v>7400</v>
@@ -2862,19 +3078,25 @@
         <v>7600</v>
       </c>
       <c r="R48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="S48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T48" s="3">
         <v>7800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>8100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3077,16 +3317,16 @@
         <v>2300</v>
       </c>
       <c r="K52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2300</v>
       </c>
       <c r="O52" s="3">
         <v>2300</v>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>76900</v>
+      </c>
+      <c r="F54" s="3">
         <v>77900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>76600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>78600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>78700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>79400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>78900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>78700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>80800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>80400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>79300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>79400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>81600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>80000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>80000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>78400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>78300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>78600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3533,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3659,144 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>6200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>5000</v>
       </c>
       <c r="S60" s="3">
         <v>6200</v>
       </c>
       <c r="T60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="V60" s="3">
         <v>7700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3854,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3589,46 +3881,52 @@
         <v>700</v>
       </c>
       <c r="I62" s="3">
+        <v>700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>2300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>2300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>6200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>5000</v>
       </c>
       <c r="S66" s="3">
         <v>6200</v>
       </c>
       <c r="T66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="V66" s="3">
         <v>7700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>69200</v>
+      </c>
+      <c r="F72" s="3">
         <v>69500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>71100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>71900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>71700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>71000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>71800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>71700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>72000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>72600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>72800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>73200</v>
       </c>
       <c r="O72" s="3">
         <v>72800</v>
       </c>
       <c r="P72" s="3">
+        <v>73200</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>72800</v>
+      </c>
+      <c r="R72" s="3">
         <v>71800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>71400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>71000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>69700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>68500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F76" s="3">
         <v>71800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>73200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>74300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>74000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>73300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>74100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>74000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>74200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>75000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>75200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>75600</v>
       </c>
       <c r="O76" s="3">
         <v>75200</v>
       </c>
       <c r="P76" s="3">
+        <v>75600</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>75200</v>
+      </c>
+      <c r="R76" s="3">
         <v>74200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>73800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>73400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>72100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>70900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43832</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43491</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43400</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43309</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43218</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43127</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42581</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>900</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>900</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>700</v>
-      </c>
       <c r="O81" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>700</v>
       </c>
       <c r="Q81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>700</v>
+      </c>
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>5600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5498,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5094,31 +5536,37 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5689,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-500</v>
       </c>
       <c r="P94" s="3">
         <v>-400</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="R94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5344,13 +5812,13 @@
         <v>-300</v>
       </c>
       <c r="K96" s="3">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
       <c r="L96" s="3">
         <v>-300</v>
       </c>
       <c r="M96" s="3">
-        <v>-300</v>
+        <v>-1500</v>
       </c>
       <c r="N96" s="3">
         <v>-300</v>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6039,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1600</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-1500</v>
       </c>
       <c r="L100" s="3">
         <v>-300</v>
       </c>
       <c r="M100" s="3">
-        <v>-400</v>
+        <v>-1500</v>
       </c>
       <c r="N100" s="3">
         <v>-300</v>
       </c>
       <c r="O100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P100" s="3">
         <v>-300</v>
       </c>
       <c r="Q100" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="R100" s="3">
         <v>-300</v>
       </c>
       <c r="S100" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="T100" s="3">
         <v>-300</v>
       </c>
       <c r="U100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>4700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43953</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43832</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43771</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43680</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43582</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43491</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43400</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43309</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43218</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43127</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42581</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E8" s="3">
         <v>20200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E9" s="3">
         <v>14700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>17000</v>
       </c>
       <c r="J9" s="3">
         <v>17000</v>
       </c>
       <c r="K9" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L9" s="3">
         <v>14400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>17800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5800</v>
-      </c>
-      <c r="T10" s="3">
-        <v>7400</v>
       </c>
       <c r="U10" s="3">
         <v>7400</v>
       </c>
       <c r="V10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="W10" s="3">
         <v>5300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E17" s="3">
         <v>19400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>27500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,25 +1448,26 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1448,7 +1482,7 @@
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1478,10 +1512,13 @@
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,8 +1582,11 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,11 +1596,11 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1568,11 +1608,11 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1580,11 +1620,11 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1592,11 +1632,11 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1604,144 +1644,153 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1000</v>
       </c>
       <c r="U24" s="3">
         <v>1000</v>
       </c>
       <c r="V24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2011,11 +2072,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2023,11 +2084,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2035,14 +2096,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,25 +2262,28 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -2228,7 +2298,7 @@
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2258,75 +2328,81 @@
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43953</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43832</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43771</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43680</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43582</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43491</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43400</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43309</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43218</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43127</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42581</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,114 +2661,118 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E41" s="3">
         <v>24700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>28100</v>
       </c>
       <c r="S41" s="3">
         <v>28100</v>
       </c>
       <c r="T41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="U41" s="3">
         <v>23400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E42" s="3">
         <v>9300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2200</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <v>500</v>
@@ -2691,13 +2781,13 @@
         <v>500</v>
       </c>
       <c r="S42" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T42" s="3">
         <v>400</v>
       </c>
       <c r="U42" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V42" s="3">
         <v>500</v>
@@ -2705,268 +2795,283 @@
       <c r="W42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E43" s="3">
         <v>14100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E44" s="3">
         <v>13700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>19800</v>
       </c>
       <c r="J44" s="3">
         <v>19800</v>
       </c>
       <c r="K44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="L44" s="3">
         <v>16100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>19600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>24900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>55900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
       </c>
       <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E46" s="3">
         <v>62100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>57500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>59200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>59300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>59800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>60200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>59400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>61500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>60000</v>
       </c>
       <c r="S46" s="3">
         <v>60000</v>
       </c>
       <c r="T46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="U46" s="3">
         <v>58300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>58000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>58200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2977,46 +3082,46 @@
         <v>3200</v>
       </c>
       <c r="F47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G47" s="3">
         <v>3800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7800</v>
       </c>
       <c r="K47" s="3">
         <v>7800</v>
       </c>
       <c r="L47" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="M47" s="3">
         <v>7600</v>
       </c>
       <c r="N47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O47" s="3">
         <v>7700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7400</v>
-      </c>
-      <c r="S47" s="3">
-        <v>7200</v>
       </c>
       <c r="T47" s="3">
         <v>7200</v>
@@ -3025,78 +3130,84 @@
         <v>7200</v>
       </c>
       <c r="V47" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="W47" s="3">
         <v>7100</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3323,13 +3443,13 @@
         <v>2300</v>
       </c>
       <c r="M52" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="N52" s="3">
         <v>3400</v>
       </c>
       <c r="O52" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="P52" s="3">
         <v>2300</v>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E54" s="3">
         <v>76200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>77900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>79400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>80800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>80400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>79300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>79400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>81600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>80000</v>
       </c>
       <c r="S54" s="3">
         <v>80000</v>
       </c>
       <c r="T54" s="3">
+        <v>80000</v>
+      </c>
+      <c r="U54" s="3">
         <v>78400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>78300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>78600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3665,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2500</v>
       </c>
       <c r="R57" s="3">
         <v>2500</v>
       </c>
       <c r="S57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,138 +3799,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
       </c>
       <c r="G59" s="3">
         <v>1500</v>
       </c>
       <c r="H59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1800</v>
       </c>
       <c r="O59" s="3">
         <v>1800</v>
       </c>
       <c r="P59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4003,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3887,46 +4033,49 @@
         <v>700</v>
       </c>
       <c r="K62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
       </c>
       <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>2300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>2300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4275,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4129,64 +4287,67 @@
         <v>4600</v>
       </c>
       <c r="E66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E72" s="3">
         <v>69300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>69200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>69500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>71100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>71900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>71700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>71000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>71800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>71700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>73200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>72800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>71800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>71400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>71000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>69700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>68500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E76" s="3">
         <v>71600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>73200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>74000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>73300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>75000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>75200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>75600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>73800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>72100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>70900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43953</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43832</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43771</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43680</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43582</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43491</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43400</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43309</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43218</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43127</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42581</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,19 +5720,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5542,31 +5763,34 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5818,10 +6052,10 @@
         <v>-300</v>
       </c>
       <c r="M96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-300</v>
       </c>
       <c r="O96" s="3">
         <v>-300</v>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6288,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6054,40 +6300,40 @@
         <v>-600</v>
       </c>
       <c r="E100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-400</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
       </c>
       <c r="H100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
       </c>
       <c r="J100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-300</v>
       </c>
       <c r="L100" s="3">
         <v>-300</v>
       </c>
       <c r="M100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-300</v>
       </c>
       <c r="Q100" s="3">
         <v>-300</v>
@@ -6096,10 +6342,10 @@
         <v>-300</v>
       </c>
       <c r="S100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T100" s="3">
         <v>-900</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-300</v>
       </c>
       <c r="U100" s="3">
         <v>-300</v>
@@ -6108,10 +6354,13 @@
         <v>-300</v>
       </c>
       <c r="W100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43832</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43680</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43582</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43491</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43400</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43309</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43218</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43127</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42581</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E8" s="3">
         <v>21600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>17000</v>
       </c>
       <c r="K9" s="3">
         <v>17000</v>
       </c>
       <c r="L9" s="3">
+        <v>17000</v>
+      </c>
+      <c r="M9" s="3">
         <v>14400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>20700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>22500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>17800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E10" s="3">
         <v>6000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5800</v>
-      </c>
-      <c r="U10" s="3">
-        <v>7400</v>
       </c>
       <c r="V10" s="3">
         <v>7400</v>
       </c>
       <c r="W10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="X10" s="3">
         <v>5300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E17" s="3">
         <v>20100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>25500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>27500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,28 +1482,29 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1485,7 +1519,7 @@
         <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1515,10 +1549,13 @@
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1585,8 +1622,11 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,11 +1639,11 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1611,11 +1651,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1623,11 +1663,11 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1635,11 +1675,11 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1647,150 +1687,159 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1000</v>
       </c>
       <c r="V24" s="3">
         <v>1000</v>
       </c>
       <c r="W24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2075,11 +2136,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2087,11 +2148,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2099,14 +2160,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,28 +2332,31 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2301,7 +2371,7 @@
         <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2331,78 +2401,84 @@
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43832</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43680</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43582</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43491</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43400</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43309</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43218</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43127</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42581</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,120 +2748,124 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E41" s="3">
         <v>23000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>33900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>28100</v>
       </c>
       <c r="T41" s="3">
         <v>28100</v>
       </c>
       <c r="U41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="V41" s="3">
         <v>23400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E42" s="3">
         <v>10600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2200</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
         <v>500</v>
@@ -2784,13 +2874,13 @@
         <v>500</v>
       </c>
       <c r="T42" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U42" s="3">
         <v>400</v>
       </c>
       <c r="V42" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W42" s="3">
         <v>500</v>
@@ -2798,144 +2888,153 @@
       <c r="X42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E43" s="3">
         <v>16500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>13600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E44" s="3">
         <v>12400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>19800</v>
       </c>
       <c r="K44" s="3">
         <v>19800</v>
       </c>
       <c r="L44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="M44" s="3">
         <v>16100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>19600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>24900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>55900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2943,140 +3042,146 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E46" s="3">
         <v>62900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>62700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>57500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>59200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>59300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>59800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>60200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>61500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>60000</v>
       </c>
       <c r="T46" s="3">
         <v>60000</v>
       </c>
       <c r="U46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="V46" s="3">
         <v>58300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>58000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>58200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3200</v>
+        <v>4300</v>
       </c>
       <c r="E47" s="3">
         <v>3200</v>
@@ -3085,46 +3190,46 @@
         <v>3200</v>
       </c>
       <c r="G47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H47" s="3">
         <v>3800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>7800</v>
       </c>
       <c r="L47" s="3">
         <v>7800</v>
       </c>
       <c r="M47" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="N47" s="3">
         <v>7600</v>
       </c>
       <c r="O47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P47" s="3">
         <v>7700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7400</v>
-      </c>
-      <c r="T47" s="3">
-        <v>7200</v>
       </c>
       <c r="U47" s="3">
         <v>7200</v>
@@ -3133,81 +3238,87 @@
         <v>7200</v>
       </c>
       <c r="W47" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="X47" s="3">
         <v>7100</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3446,13 +3566,13 @@
         <v>2300</v>
       </c>
       <c r="N52" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="O52" s="3">
         <v>3400</v>
       </c>
       <c r="P52" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="Q52" s="3">
         <v>2300</v>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E54" s="3">
         <v>76700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>76900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>77900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>78700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>80800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>80400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>79300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>79400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>81600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>80000</v>
       </c>
       <c r="T54" s="3">
         <v>80000</v>
       </c>
       <c r="U54" s="3">
+        <v>80000</v>
+      </c>
+      <c r="V54" s="3">
         <v>78400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>78300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>78600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +3796,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2500</v>
       </c>
       <c r="S57" s="3">
         <v>2500</v>
       </c>
       <c r="T57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3802,144 +3936,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1500</v>
       </c>
       <c r="H59" s="3">
         <v>1500</v>
       </c>
       <c r="I59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1800</v>
       </c>
       <c r="P59" s="3">
         <v>1800</v>
       </c>
       <c r="Q59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4006,13 +4149,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
@@ -4036,46 +4182,49 @@
         <v>700</v>
       </c>
       <c r="L62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
       </c>
       <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>2300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
         <v>2300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4600</v>
+        <v>5600</v>
       </c>
       <c r="E66" s="3">
         <v>4600</v>
       </c>
       <c r="F66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E72" s="3">
         <v>69900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>69300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>69200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>69500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>71100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>71900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>71700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>71000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>71800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>71700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>72800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>73200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>72800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>71800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>71400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>71000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>69700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>68500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,8 +5099,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4925,67 +5111,70 @@
         <v>72200</v>
       </c>
       <c r="E76" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F76" s="3">
         <v>71600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>71500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>71800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>73200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>74300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>75000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>75200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>75200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>73400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>72100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>70900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43832</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43680</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43582</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43491</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43400</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43309</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43218</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43127</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42581</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5417,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5287,8 +5486,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +5941,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5730,13 +5951,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5766,31 +5987,34 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6055,10 +6289,10 @@
         <v>-300</v>
       </c>
       <c r="N96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-300</v>
       </c>
       <c r="P96" s="3">
         <v>-300</v>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,52 +6534,55 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E100" s="3">
         <v>-600</v>
       </c>
       <c r="F100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-400</v>
       </c>
       <c r="H100" s="3">
         <v>-400</v>
       </c>
       <c r="I100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
       </c>
       <c r="K100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-300</v>
       </c>
       <c r="M100" s="3">
         <v>-300</v>
       </c>
       <c r="N100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-300</v>
       </c>
       <c r="R100" s="3">
         <v>-300</v>
@@ -6345,10 +6591,10 @@
         <v>-300</v>
       </c>
       <c r="T100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U100" s="3">
         <v>-900</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-300</v>
       </c>
       <c r="V100" s="3">
         <v>-300</v>
@@ -6357,10 +6603,13 @@
         <v>-300</v>
       </c>
       <c r="X100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6676,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>4700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,348 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43832</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43582</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43491</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43400</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43309</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43218</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43127</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42581</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F8" s="3">
         <v>21400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>21600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>20200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>18900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>14300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>20300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>22700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>22200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>18600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>20600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>16200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>20500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>22400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>22200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>24100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>28100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>29900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>23100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F9" s="3">
         <v>16000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>14700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>13900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>9900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>15300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>17000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>16200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>12200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>15500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>16200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>17200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>18300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>20700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>22500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>17800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>6200</v>
       </c>
       <c r="T10" s="3">
         <v>5000</v>
       </c>
       <c r="U10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="V10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W10" s="3">
         <v>5800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>7400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>7400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>5300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1032,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1105,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,8 +1182,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1259,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1336,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1366,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F17" s="3">
         <v>20600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>18300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>19700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>21500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>21400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>18200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>20700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>19500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>16100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>19900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>20400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>21200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>22300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>25500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>27500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>22500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>800</v>
+        <v>3400</v>
       </c>
       <c r="E18" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="F18" s="3">
         <v>800</v>
       </c>
       <c r="G18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>800</v>
+      </c>
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,34 +1549,36 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
@@ -1522,10 +1590,10 @@
         <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1552,10 +1620,16 @@
         <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1625,8 +1699,14 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1642,204 +1722,222 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="E23" s="3">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="F23" s="3">
         <v>1000</v>
       </c>
       <c r="G23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>800</v>
-      </c>
       <c r="T24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>800</v>
       </c>
       <c r="V24" s="3">
+        <v>400</v>
+      </c>
+      <c r="W24" s="3">
+        <v>800</v>
+      </c>
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +2007,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1300</v>
       </c>
       <c r="T26" s="3">
         <v>700</v>
       </c>
       <c r="U26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V26" s="3">
+        <v>700</v>
+      </c>
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1300</v>
       </c>
       <c r="T27" s="3">
         <v>700</v>
       </c>
       <c r="U27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V27" s="3">
+        <v>700</v>
+      </c>
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,58 +2238,64 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2193,8 +2315,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2392,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,34 +2469,40 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
@@ -2374,10 +2514,10 @@
         <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2404,81 +2544,93 @@
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>900</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>900</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>700</v>
-      </c>
       <c r="S33" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>700</v>
       </c>
       <c r="U33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V33" s="3">
+        <v>700</v>
+      </c>
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2700,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>900</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>900</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>700</v>
-      </c>
       <c r="S35" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>700</v>
       </c>
       <c r="U35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V35" s="3">
+        <v>700</v>
+      </c>
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43832</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43582</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43491</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43400</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43309</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43218</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43127</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42581</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2892,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,475 +2921,513 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F41" s="3">
         <v>23500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>24700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>19100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>13600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>21200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>19200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>27600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>33900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>32300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>29200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>28100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>28100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>23400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>16600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>15700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F42" s="3">
         <v>8600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>10600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>9300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>14200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>13900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>10900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>13200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>12100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>9500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>7800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2200</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>500</v>
-      </c>
       <c r="S42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
         <v>500</v>
       </c>
       <c r="U42" s="3">
+        <v>500</v>
+      </c>
+      <c r="V42" s="3">
+        <v>500</v>
+      </c>
+      <c r="W42" s="3">
         <v>400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>400</v>
-      </c>
-      <c r="W42" s="3">
-        <v>500</v>
-      </c>
-      <c r="X42" s="3">
-        <v>500</v>
       </c>
       <c r="Y42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F43" s="3">
         <v>16400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>16500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>14100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>9000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>13100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>14200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>13400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>14500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>11800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>11000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>12800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>13900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>25000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>12300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>14500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>15400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>13600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F44" s="3">
         <v>14300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>12400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>15300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>18300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>18100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>19500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>19800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>19800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>16100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>15500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>17900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>18400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>14000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>13300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>17400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>18300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>18900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>19600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>24900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>55900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
       </c>
       <c r="M45" s="3">
+        <v>800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>400</v>
       </c>
       <c r="T45" s="3">
+        <v>300</v>
+      </c>
+      <c r="U45" s="3">
+        <v>400</v>
+      </c>
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>500</v>
-      </c>
-      <c r="X45" s="3">
-        <v>2600</v>
       </c>
       <c r="Y45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F46" s="3">
         <v>63100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>62900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>62100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>62700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>63000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>57500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>59200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>59300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>59800</v>
       </c>
       <c r="M46" s="3">
         <v>59300</v>
       </c>
       <c r="N46" s="3">
+        <v>59800</v>
+      </c>
+      <c r="O46" s="3">
+        <v>59300</v>
+      </c>
+      <c r="P46" s="3">
         <v>59100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>59800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>60200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>59400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>59200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>61500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>60000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>60000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>58300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>58000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>58200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F47" s="3">
         <v>4300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3200</v>
       </c>
       <c r="G47" s="3">
         <v>3200</v>
       </c>
       <c r="H47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J47" s="3">
         <v>3800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>7700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>7700</v>
       </c>
       <c r="Q47" s="3">
         <v>7600</v>
@@ -3226,78 +3436,84 @@
         <v>7700</v>
       </c>
       <c r="S47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="U47" s="3">
         <v>7500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>7400</v>
-      </c>
-      <c r="U47" s="3">
-        <v>7200</v>
-      </c>
-      <c r="V47" s="3">
-        <v>7200</v>
       </c>
       <c r="W47" s="3">
         <v>7200</v>
       </c>
       <c r="X47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Z47" s="3">
         <v>7100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>7400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>7200</v>
       </c>
       <c r="R48" s="3">
         <v>7400</v>
       </c>
       <c r="S48" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="T48" s="3">
         <v>7400</v>
@@ -3306,19 +3522,25 @@
         <v>7600</v>
       </c>
       <c r="V48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="W48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="X48" s="3">
         <v>7800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>7900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>8100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3610,14 @@
       <c r="Y49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3687,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,8 +3764,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3569,16 +3809,16 @@
         <v>2300</v>
       </c>
       <c r="O52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2300</v>
       </c>
       <c r="S52" s="3">
         <v>2300</v>
@@ -3601,8 +3841,14 @@
       <c r="Y52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3918,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>81400</v>
+      </c>
+      <c r="F54" s="3">
         <v>77900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>76700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>76200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>76900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>77900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>76600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>78600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>78700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>79400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>78900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>78700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>80800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>80400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>79300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>79400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>81600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>80000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>80000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>78400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>78300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>78600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +4028,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,79 +4057,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3939,150 +4207,168 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>6200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>5000</v>
       </c>
       <c r="W60" s="3">
         <v>6200</v>
       </c>
       <c r="X60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>7700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4152,8 +4438,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4161,10 +4453,10 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
@@ -4185,46 +4477,52 @@
         <v>700</v>
       </c>
       <c r="M62" s="3">
+        <v>700</v>
+      </c>
+      <c r="N62" s="3">
+        <v>700</v>
+      </c>
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>2300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3">
         <v>2300</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4592,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4669,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4746,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>6200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>5000</v>
       </c>
       <c r="W66" s="3">
         <v>6200</v>
       </c>
       <c r="X66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>7700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4856,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4929,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +5006,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +5083,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +5160,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F72" s="3">
         <v>70000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>69900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>69300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>69200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>69500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>71100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>71900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>71700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>71000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>71800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>71700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>72000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>72600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>72800</v>
-      </c>
-      <c r="R72" s="3">
-        <v>73200</v>
       </c>
       <c r="S72" s="3">
         <v>72800</v>
       </c>
       <c r="T72" s="3">
+        <v>73200</v>
+      </c>
+      <c r="U72" s="3">
+        <v>72800</v>
+      </c>
+      <c r="V72" s="3">
         <v>71800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>71400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>71000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>69700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>68500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5314,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5391,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5468,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F76" s="3">
         <v>72200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>72200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>71600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>71500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>71800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>73200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>74300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>74000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>73300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>74100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>74000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>74200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>75000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>75200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>75600</v>
       </c>
       <c r="S76" s="3">
         <v>75200</v>
       </c>
       <c r="T76" s="3">
+        <v>75600</v>
+      </c>
+      <c r="U76" s="3">
+        <v>75200</v>
+      </c>
+      <c r="V76" s="3">
         <v>74200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>73800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>73400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>72100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>70900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5622,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43832</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43582</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43491</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43400</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43309</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43218</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43127</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42581</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>900</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>900</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>700</v>
-      </c>
       <c r="S81" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>700</v>
       </c>
       <c r="U81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V81" s="3">
+        <v>700</v>
+      </c>
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,8 +5814,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5489,8 +5887,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5964,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +6041,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +6118,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +6195,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6272,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>5600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>7100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,29 +6382,31 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5990,31 +6432,37 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-400</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-200</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6532,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6609,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>400</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-500</v>
       </c>
       <c r="T94" s="3">
         <v>-400</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="V94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6719,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6292,13 +6760,13 @@
         <v>-300</v>
       </c>
       <c r="O96" s="3">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
       <c r="P96" s="3">
         <v>-300</v>
       </c>
       <c r="Q96" s="3">
-        <v>-300</v>
+        <v>-1500</v>
       </c>
       <c r="R96" s="3">
         <v>-300</v>
@@ -6324,8 +6792,14 @@
       <c r="Y96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6869,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6946,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +7023,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-1600</v>
       </c>
       <c r="M100" s="3">
         <v>-300</v>
       </c>
       <c r="N100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-1500</v>
       </c>
       <c r="P100" s="3">
         <v>-300</v>
       </c>
       <c r="Q100" s="3">
-        <v>-400</v>
+        <v>-1500</v>
       </c>
       <c r="R100" s="3">
         <v>-300</v>
       </c>
       <c r="S100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T100" s="3">
         <v>-300</v>
       </c>
       <c r="U100" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="V100" s="3">
         <v>-300</v>
       </c>
       <c r="W100" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="X100" s="3">
         <v>-300</v>
       </c>
       <c r="Y100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +7177,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>4700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>6800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>3400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,360 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44591</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43832</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43680</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43582</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43491</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43400</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43309</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43218</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43127</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42672</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42581</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E8" s="3">
         <v>31400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>22200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>24100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>28100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>29900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>23100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E9" s="3">
         <v>22300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>17000</v>
       </c>
       <c r="N9" s="3">
         <v>17000</v>
       </c>
       <c r="O9" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P9" s="3">
         <v>14400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>17200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>18300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>20700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>22500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>17800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E10" s="3">
         <v>9100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5800</v>
-      </c>
-      <c r="X10" s="3">
-        <v>7400</v>
       </c>
       <c r="Y10" s="3">
         <v>7400</v>
       </c>
       <c r="Z10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="AA10" s="3">
         <v>5300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E17" s="3">
         <v>28000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>25500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>27500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>22500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,37 +1583,38 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
@@ -1596,7 +1629,7 @@
         <v>200</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1626,10 +1659,13 @@
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1705,8 +1741,11 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1728,11 +1767,11 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1740,11 +1779,11 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1752,11 +1791,11 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1764,11 +1803,11 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
@@ -1776,168 +1815,177 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
-      </c>
-      <c r="X24" s="3">
-        <v>1000</v>
       </c>
       <c r="Y24" s="3">
         <v>1000</v>
       </c>
       <c r="Z24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,8 +2061,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2022,76 +2073,79 @@
         <v>2500</v>
       </c>
       <c r="E26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2099,76 +2153,79 @@
         <v>2500</v>
       </c>
       <c r="E27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2270,8 +2330,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2279,11 +2339,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2291,14 +2351,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2321,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,37 +2541,40 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
@@ -2520,7 +2589,7 @@
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2550,10 +2619,13 @@
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2561,76 +2633,79 @@
         <v>2500</v>
       </c>
       <c r="E33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,8 +2781,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2715,158 +2793,164 @@
         <v>2500</v>
       </c>
       <c r="E35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44591</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43832</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43680</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43582</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43491</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43400</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43309</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43218</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43127</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42672</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42581</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,138 +3008,142 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E41" s="3">
         <v>15100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>33900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>32300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>29200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>28100</v>
       </c>
       <c r="W41" s="3">
         <v>28100</v>
       </c>
       <c r="X41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>23400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>16600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6500</v>
+        <v>8700</v>
       </c>
       <c r="E42" s="3">
         <v>6500</v>
       </c>
       <c r="F42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G42" s="3">
         <v>8600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2200</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U42" s="3">
         <v>500</v>
@@ -3063,13 +3152,13 @@
         <v>500</v>
       </c>
       <c r="W42" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X42" s="3">
         <v>400</v>
       </c>
       <c r="Y42" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z42" s="3">
         <v>500</v>
@@ -3077,330 +3166,345 @@
       <c r="AA42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E43" s="3">
         <v>29800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>13900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>14500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>15400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>13600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E44" s="3">
         <v>16800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>19500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>19800</v>
       </c>
       <c r="N44" s="3">
         <v>19800</v>
       </c>
       <c r="O44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="P44" s="3">
         <v>16100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>14000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>17400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>18300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>19600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>24900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>55900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
       </c>
       <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E46" s="3">
         <v>68700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>62700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>57500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>59800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>59300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>60200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>59400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>59200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>61500</v>
-      </c>
-      <c r="V46" s="3">
-        <v>60000</v>
       </c>
       <c r="W46" s="3">
         <v>60000</v>
       </c>
       <c r="X46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Y46" s="3">
         <v>58300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>58000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>58200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
         <v>4100</v>
       </c>
       <c r="F47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G47" s="3">
         <v>4300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3200</v>
       </c>
       <c r="H47" s="3">
         <v>3200</v>
@@ -3409,46 +3513,46 @@
         <v>3200</v>
       </c>
       <c r="J47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7900</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7800</v>
       </c>
       <c r="O47" s="3">
         <v>7800</v>
       </c>
       <c r="P47" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="Q47" s="3">
         <v>7600</v>
       </c>
       <c r="R47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="S47" s="3">
         <v>7700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7400</v>
-      </c>
-      <c r="W47" s="3">
-        <v>7200</v>
       </c>
       <c r="X47" s="3">
         <v>7200</v>
@@ -3457,13 +3561,16 @@
         <v>7200</v>
       </c>
       <c r="Z47" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="AA47" s="3">
         <v>7100</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3471,76 +3578,79 @@
         <v>5100</v>
       </c>
       <c r="E48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3616,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,8 +3886,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3815,13 +3934,13 @@
         <v>2300</v>
       </c>
       <c r="Q52" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="R52" s="3">
         <v>3400</v>
       </c>
       <c r="S52" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="T52" s="3">
         <v>2300</v>
@@ -3847,8 +3966,11 @@
       <c r="AA52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E54" s="3">
         <v>83000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>77900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>77900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>79400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>79300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>79400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>81600</v>
-      </c>
-      <c r="V54" s="3">
-        <v>80000</v>
       </c>
       <c r="W54" s="3">
         <v>80000</v>
       </c>
       <c r="X54" s="3">
+        <v>80000</v>
+      </c>
+      <c r="Y54" s="3">
         <v>78400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>78300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>78600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>2500</v>
       </c>
       <c r="V57" s="3">
         <v>2500</v>
       </c>
       <c r="W57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X57" s="3">
         <v>3300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4213,162 +4346,171 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1500</v>
       </c>
       <c r="K59" s="3">
         <v>1500</v>
       </c>
       <c r="L59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1800</v>
       </c>
       <c r="S59" s="3">
         <v>1800</v>
       </c>
       <c r="T59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4444,8 +4586,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4459,7 +4604,7 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
@@ -4483,46 +4628,49 @@
         <v>700</v>
       </c>
       <c r="O62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
       </c>
       <c r="Q62" s="3">
+        <v>600</v>
+      </c>
+      <c r="R62" s="3">
         <v>1700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>2300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3">
         <v>2300</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4600</v>
       </c>
       <c r="H66" s="3">
         <v>4600</v>
       </c>
       <c r="I66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E72" s="3">
         <v>74200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>71900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>70000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>69900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>69300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>69200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>69500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>71100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>71900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>71700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>71000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>71800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>71700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>72000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>72600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>72800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>73200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>72800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>71800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>71400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>71000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>69700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>68500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E76" s="3">
         <v>76400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>74200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>72200</v>
       </c>
       <c r="G76" s="3">
         <v>72200</v>
       </c>
       <c r="H76" s="3">
+        <v>72200</v>
+      </c>
+      <c r="I76" s="3">
         <v>71600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>74100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>74000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>75000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>75200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>75600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>75200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>74200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>73800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>73400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>72100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>70900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,90 +5816,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44591</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43832</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43680</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43582</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43491</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43400</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43309</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43218</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43127</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42672</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42581</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5719,76 +5913,79 @@
         <v>2500</v>
       </c>
       <c r="E81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5893,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,31 +6603,32 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6438,31 +6658,34 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6766,10 +6999,10 @@
         <v>-300</v>
       </c>
       <c r="Q96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-300</v>
       </c>
       <c r="S96" s="3">
         <v>-300</v>
@@ -6798,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,8 +7271,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7041,49 +7286,49 @@
         <v>-300</v>
       </c>
       <c r="F100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-600</v>
       </c>
       <c r="H100" s="3">
         <v>-600</v>
       </c>
       <c r="I100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-400</v>
       </c>
       <c r="K100" s="3">
         <v>-400</v>
       </c>
       <c r="L100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M100" s="3">
         <v>-300</v>
       </c>
       <c r="N100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-300</v>
       </c>
       <c r="P100" s="3">
         <v>-300</v>
       </c>
       <c r="Q100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-300</v>
       </c>
       <c r="U100" s="3">
         <v>-300</v>
@@ -7092,10 +7337,10 @@
         <v>-300</v>
       </c>
       <c r="W100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X100" s="3">
         <v>-900</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-300</v>
       </c>
       <c r="Y100" s="3">
         <v>-300</v>
@@ -7104,10 +7349,13 @@
         <v>-300</v>
       </c>
       <c r="AA100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7183,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>4700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,373 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44591</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43832</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43582</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43491</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43400</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43309</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43218</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43127</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42581</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>22400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>22200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>24100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>28100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>29900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>23100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E9" s="3">
         <v>23100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>17000</v>
       </c>
       <c r="O9" s="3">
         <v>17000</v>
       </c>
       <c r="P9" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>14400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>17200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>18300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>20700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>22500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>17800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E10" s="3">
         <v>9700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5800</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>7400</v>
       </c>
       <c r="Z10" s="3">
         <v>7400</v>
       </c>
       <c r="AA10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="AB10" s="3">
         <v>5300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1060,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1141,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1224,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1307,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1420,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E17" s="3">
         <v>29000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>22300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>25500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>27500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>22500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,40 +1617,41 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
@@ -1632,7 +1666,7 @@
         <v>200</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1662,10 +1696,13 @@
         <v>100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1744,8 +1781,11 @@
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1770,11 +1810,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1782,11 +1822,11 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1794,11 +1834,11 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1806,11 +1846,11 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
@@ -1818,174 +1858,183 @@
       <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1000</v>
       </c>
       <c r="Z24" s="3">
         <v>1000</v>
       </c>
       <c r="AA24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E26" s="3">
         <v>2500</v>
       </c>
       <c r="F26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E27" s="3">
         <v>2500</v>
       </c>
       <c r="F27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2333,8 +2394,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2342,11 +2403,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2354,14 +2415,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2384,8 +2445,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,40 +2611,43 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
@@ -2592,7 +2662,7 @@
         <v>-200</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2622,90 +2692,96 @@
         <v>-100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E33" s="3">
         <v>2500</v>
       </c>
       <c r="F33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E35" s="3">
         <v>2500</v>
       </c>
       <c r="F35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44591</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43832</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43582</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43491</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43400</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43309</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43218</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43127</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42581</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,144 +3095,148 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E41" s="3">
         <v>22400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>33900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>32300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>29200</v>
-      </c>
-      <c r="W41" s="3">
-        <v>28100</v>
       </c>
       <c r="X41" s="3">
         <v>28100</v>
       </c>
       <c r="Y41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>23400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>16600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E42" s="3">
         <v>8700</v>
-      </c>
-      <c r="E42" s="3">
-        <v>6500</v>
       </c>
       <c r="F42" s="3">
         <v>6500</v>
       </c>
       <c r="G42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H42" s="3">
         <v>8600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2200</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
         <v>500</v>
@@ -3155,13 +3245,13 @@
         <v>500</v>
       </c>
       <c r="X42" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y42" s="3">
         <v>400</v>
       </c>
       <c r="Z42" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AA42" s="3">
         <v>500</v>
@@ -3169,328 +3259,343 @@
       <c r="AB42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E43" s="3">
         <v>21400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>25000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>14500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>15400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>13600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E44" s="3">
         <v>18400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>19800</v>
       </c>
       <c r="O44" s="3">
         <v>19800</v>
       </c>
       <c r="P44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>16100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>14000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>17400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>18900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>19600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>24900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>55900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>400</v>
       </c>
       <c r="R45" s="3">
+        <v>400</v>
+      </c>
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E46" s="3">
         <v>71200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>68700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>67000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>62100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>62700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>57500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>59300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>59800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>59800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>60200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>59400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>59200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>61500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>60000</v>
       </c>
       <c r="X46" s="3">
         <v>60000</v>
       </c>
       <c r="Y46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z46" s="3">
         <v>58300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>58000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>58200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3498,16 +3603,16 @@
         <v>4000</v>
       </c>
       <c r="E47" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F47" s="3">
         <v>4100</v>
       </c>
       <c r="G47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H47" s="3">
         <v>4300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3200</v>
       </c>
       <c r="I47" s="3">
         <v>3200</v>
@@ -3516,46 +3621,46 @@
         <v>3200</v>
       </c>
       <c r="K47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7900</v>
-      </c>
-      <c r="O47" s="3">
-        <v>7800</v>
       </c>
       <c r="P47" s="3">
         <v>7800</v>
       </c>
       <c r="Q47" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="R47" s="3">
         <v>7600</v>
       </c>
       <c r="S47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T47" s="3">
         <v>7700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7400</v>
-      </c>
-      <c r="X47" s="3">
-        <v>7200</v>
       </c>
       <c r="Y47" s="3">
         <v>7200</v>
@@ -3564,93 +3669,99 @@
         <v>7200</v>
       </c>
       <c r="AA47" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="AB47" s="3">
         <v>7100</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E48" s="3">
         <v>5100</v>
       </c>
       <c r="F48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3729,8 +3840,11 @@
       <c r="AB49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,8 +4006,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3937,13 +4057,13 @@
         <v>2300</v>
       </c>
       <c r="R52" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="S52" s="3">
         <v>3400</v>
       </c>
       <c r="T52" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="U52" s="3">
         <v>2300</v>
@@ -3969,8 +4089,11 @@
       <c r="AB52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4172,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E54" s="3">
         <v>85400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>83000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>81400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>77900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>76900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>79400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>80400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>79300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>79400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>81600</v>
-      </c>
-      <c r="W54" s="3">
-        <v>80000</v>
       </c>
       <c r="X54" s="3">
         <v>80000</v>
       </c>
       <c r="Y54" s="3">
+        <v>80000</v>
+      </c>
+      <c r="Z54" s="3">
         <v>78400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>78300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>78600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,88 +4319,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2500</v>
       </c>
       <c r="W57" s="3">
         <v>2500</v>
       </c>
       <c r="X57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>3300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4349,168 +4483,177 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
       </c>
       <c r="L59" s="3">
         <v>1500</v>
       </c>
       <c r="M59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1800</v>
       </c>
       <c r="T59" s="3">
         <v>1800</v>
       </c>
       <c r="U59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4589,13 +4732,16 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -4607,7 +4753,7 @@
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>700</v>
@@ -4631,46 +4777,49 @@
         <v>700</v>
       </c>
       <c r="P62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
       </c>
       <c r="R62" s="3">
+        <v>600</v>
+      </c>
+      <c r="S62" s="3">
         <v>1700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
         <v>2300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="3">
         <v>2300</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5064,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4600</v>
       </c>
       <c r="I66" s="3">
         <v>4600</v>
       </c>
       <c r="J66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5510,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E72" s="3">
         <v>76400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>74200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>71900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>70000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>69900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>69300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>69200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>69500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>71100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>71900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>71700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>71000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>71800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>71700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>72000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>72600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>72800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>73200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>72800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>71800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>71400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>71000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>69700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>68500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E76" s="3">
         <v>78700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>76400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>72200</v>
       </c>
       <c r="H76" s="3">
         <v>72200</v>
       </c>
       <c r="I76" s="3">
+        <v>72200</v>
+      </c>
+      <c r="J76" s="3">
         <v>71600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>74100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>75000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>75200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>75600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>75200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>74200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>73800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>73400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>72100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>70900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44591</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43832</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43582</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43491</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43400</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43309</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43218</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43127</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42581</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E81" s="3">
         <v>2500</v>
       </c>
       <c r="F81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6212,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6094,8 +6293,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6708,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,8 +6824,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6613,25 +6834,25 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6661,31 +6882,34 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7071,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7187,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7002,10 +7236,10 @@
         <v>-300</v>
       </c>
       <c r="R96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-300</v>
       </c>
       <c r="T96" s="3">
         <v>-300</v>
@@ -7034,8 +7268,11 @@
       <c r="AB96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,8 +7517,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7289,49 +7535,49 @@
         <v>-300</v>
       </c>
       <c r="G100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H100" s="3">
         <v>-800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-600</v>
       </c>
       <c r="I100" s="3">
         <v>-600</v>
       </c>
       <c r="J100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-400</v>
       </c>
       <c r="L100" s="3">
         <v>-400</v>
       </c>
       <c r="M100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N100" s="3">
         <v>-300</v>
       </c>
       <c r="O100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-300</v>
       </c>
       <c r="Q100" s="3">
         <v>-300</v>
       </c>
       <c r="R100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-300</v>
       </c>
       <c r="V100" s="3">
         <v>-300</v>
@@ -7340,10 +7586,10 @@
         <v>-300</v>
       </c>
       <c r="X100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-900</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-300</v>
       </c>
       <c r="Z100" s="3">
         <v>-300</v>
@@ -7352,10 +7598,13 @@
         <v>-300</v>
       </c>
       <c r="AB100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7683,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>7300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>4700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCRAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>MCRAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,399 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44591</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43832</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43680</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43491</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43400</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43309</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43218</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43127</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42581</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F8" s="3">
         <v>33000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>32800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>31400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>27600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>21400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>20200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>18900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>14300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>22700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>22200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>18600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>20700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>20600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>14900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>16200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>20500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>22400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>22200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>24100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>28100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>29900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>23100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F9" s="3">
         <v>23400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>23100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>22300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>19600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>16000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>14700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>13900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>15300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>17000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>17000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>14400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>16200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>15300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>12200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>15500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>16200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>17200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>18300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>20700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>22500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>17800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F10" s="3">
         <v>9600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>9700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>3600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4000</v>
-      </c>
-      <c r="V10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="W10" s="3">
-        <v>6200</v>
       </c>
       <c r="X10" s="3">
         <v>5000</v>
       </c>
       <c r="Y10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AA10" s="3">
         <v>5800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>7400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>7400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>5300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1087,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1172,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,8 +1261,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1310,8 +1350,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1393,8 +1439,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1473,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F17" s="3">
         <v>29600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>29000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>28000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>24700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>20600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>20100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>19400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>19700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>21500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>21400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>18200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>20700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>19500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>15200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>16100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>19900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>20400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>21200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>22300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>25500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>27500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>22500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="3">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="F18" s="3">
         <v>3400</v>
       </c>
       <c r="G18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I18" s="3">
         <v>2900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1500</v>
       </c>
       <c r="J18" s="3">
         <v>800</v>
       </c>
       <c r="K18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>800</v>
+      </c>
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,46 +1684,48 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
@@ -1669,10 +1737,10 @@
         <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
@@ -1699,10 +1767,16 @@
         <v>100</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1784,257 +1858,281 @@
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="E23" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="F23" s="3">
         <v>3400</v>
       </c>
       <c r="G23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I23" s="3">
         <v>3100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1700</v>
       </c>
       <c r="J23" s="3">
         <v>1000</v>
       </c>
       <c r="K23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>800</v>
-      </c>
       <c r="X24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>800</v>
       </c>
       <c r="Z24" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2214,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1300</v>
       </c>
       <c r="X26" s="3">
         <v>700</v>
       </c>
       <c r="Y26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1300</v>
       </c>
       <c r="X27" s="3">
         <v>700</v>
       </c>
       <c r="Y27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2481,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2397,38 +2519,38 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>400</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2448,8 +2570,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2659,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,46 +2748,52 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
@@ -2665,10 +2805,10 @@
         <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
@@ -2695,93 +2835,105 @@
         <v>-100</v>
       </c>
       <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>900</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>900</v>
+      </c>
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
-        <v>700</v>
-      </c>
       <c r="W33" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>700</v>
       </c>
       <c r="Y33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +3015,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>900</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>900</v>
+      </c>
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
-        <v>700</v>
-      </c>
       <c r="W35" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>700</v>
       </c>
       <c r="Y35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44591</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43832</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43680</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43491</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43400</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43309</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43218</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43127</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42581</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3235,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,506 +3268,544 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F41" s="3">
         <v>15300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>22400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>20700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>23500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>19100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>21000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>23200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>17300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>13600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>20400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>21200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>19200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>27600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>33900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>32300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>29200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>28100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>28100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>23400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>16600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>15700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F42" s="3">
         <v>10500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>6500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>8600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>10600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>13900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>7200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>10900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>12100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>9500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>7800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2200</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>500</v>
-      </c>
       <c r="W42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X42" s="3">
         <v>500</v>
       </c>
       <c r="Y42" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA42" s="3">
         <v>400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>400</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>500</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>500</v>
       </c>
       <c r="AC42" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F43" s="3">
         <v>26100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>21400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>29800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>23500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>16400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>16500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>13600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>13100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>14600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>14200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>13400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>10300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>12400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>14500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>11800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>11000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>12800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>13900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>25000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>12300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>14500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>15400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>13600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F44" s="3">
         <v>24500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>18400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>16800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>15600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>14300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>12400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>15300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>18300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>18100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>19500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>19800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>19800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>16100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>15500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>17900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>18400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>14000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>13300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>17400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>18300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>18900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>19600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>24900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>55900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>800</v>
       </c>
       <c r="P45" s="3">
         <v>600</v>
       </c>
       <c r="Q45" s="3">
+        <v>800</v>
+      </c>
+      <c r="R45" s="3">
+        <v>600</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>300</v>
       </c>
       <c r="W45" s="3">
         <v>400</v>
       </c>
       <c r="X45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z45" s="3">
         <v>2200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>400</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>500</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>2600</v>
       </c>
       <c r="AC45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>79500</v>
+      </c>
+      <c r="F46" s="3">
         <v>76800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>71200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>68700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>67000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>63100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>62900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>62100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>62700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>63000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>57500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>59200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>59300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>59800</v>
       </c>
       <c r="Q46" s="3">
         <v>59300</v>
       </c>
       <c r="R46" s="3">
+        <v>59800</v>
+      </c>
+      <c r="S46" s="3">
+        <v>59300</v>
+      </c>
+      <c r="T46" s="3">
         <v>59100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>59800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>60200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>59400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>59200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>61500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>60000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>60000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>58300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>58000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>58200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3606,49 +3816,49 @@
         <v>4000</v>
       </c>
       <c r="F47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H47" s="3">
         <v>4100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>4100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3200</v>
       </c>
       <c r="K47" s="3">
         <v>3200</v>
       </c>
       <c r="L47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N47" s="3">
         <v>3800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>8000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>7600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="T47" s="3">
-        <v>7700</v>
       </c>
       <c r="U47" s="3">
         <v>7600</v>
@@ -3657,28 +3867,34 @@
         <v>7700</v>
       </c>
       <c r="W47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="X47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Y47" s="3">
         <v>7500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>7400</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>7200</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>7200</v>
       </c>
       <c r="AA47" s="3">
         <v>7200</v>
       </c>
       <c r="AB47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="AD47" s="3">
         <v>7100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3686,61 +3902,61 @@
         <v>5200</v>
       </c>
       <c r="E48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>7400</v>
-      </c>
-      <c r="U48" s="3">
-        <v>7200</v>
       </c>
       <c r="V48" s="3">
         <v>7400</v>
       </c>
       <c r="W48" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="X48" s="3">
         <v>7400</v>
@@ -3749,19 +3965,25 @@
         <v>7600</v>
       </c>
       <c r="Z48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AB48" s="3">
         <v>7800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>7900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>8100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3843,8 +4065,14 @@
       <c r="AC49" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4154,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,8 +4243,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4060,16 +4300,16 @@
         <v>2300</v>
       </c>
       <c r="S52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U52" s="3">
         <v>3400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="V52" s="3">
-        <v>2300</v>
       </c>
       <c r="W52" s="3">
         <v>2300</v>
@@ -4092,8 +4332,14 @@
       <c r="AC52" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4421,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>93900</v>
+      </c>
+      <c r="F54" s="3">
         <v>91000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>85400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>83000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>81400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>77900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>76700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>76200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>76900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>77900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>76600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>78600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>78700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>79400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>78900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>78700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>80800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>80400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>79300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>79400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>81600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>80000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>80000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>78400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>78300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>78600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4547,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,91 +4580,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>2600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>3100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>4700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4486,174 +4754,192 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>3200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>3000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F60" s="3">
         <v>9800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5800</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>6200</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>5000</v>
       </c>
       <c r="AA60" s="3">
         <v>6200</v>
       </c>
       <c r="AB60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AD60" s="3">
         <v>7700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4735,8 +5021,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4744,10 +5036,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
@@ -4756,10 +5048,10 @@
         <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
@@ -4780,46 +5072,52 @@
         <v>700</v>
       </c>
       <c r="Q62" s="3">
+        <v>700</v>
+      </c>
+      <c r="R62" s="3">
+        <v>700</v>
+      </c>
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3">
         <v>2300</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="3">
         <v>2300</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5199,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5288,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5377,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F66" s="3">
         <v>9800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5800</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>6200</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>5000</v>
       </c>
       <c r="AA66" s="3">
         <v>6200</v>
       </c>
       <c r="AB66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AD66" s="3">
         <v>7700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5503,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5588,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5677,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5766,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5855,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>81500</v>
+      </c>
+      <c r="F72" s="3">
         <v>79000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>76400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>74200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>71900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>70000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>69900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>69300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>69200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>69500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>71100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>71900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>71700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>71000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>71800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>71700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>72000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>72600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>72800</v>
-      </c>
-      <c r="V72" s="3">
-        <v>73200</v>
       </c>
       <c r="W72" s="3">
         <v>72800</v>
       </c>
       <c r="X72" s="3">
+        <v>73200</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>72800</v>
+      </c>
+      <c r="Z72" s="3">
         <v>71800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>71400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>71000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>69700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>68500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>68200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +6033,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +6122,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6211,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>83800</v>
+      </c>
+      <c r="F76" s="3">
         <v>81200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>78700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>76400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>74200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>72200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>72200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>71600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>71500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>71800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>73200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>74300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>74000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>73300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>74100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>74000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>74200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>75000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>75200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>75600</v>
       </c>
       <c r="W76" s="3">
         <v>75200</v>
       </c>
       <c r="X76" s="3">
+        <v>75600</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>75200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>74200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>73800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>73400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>72100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>70900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6389,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44591</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43832</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43680</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43491</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43400</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43309</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43218</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43127</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42581</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>900</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>900</v>
+      </c>
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
-        <v>700</v>
-      </c>
       <c r="W81" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>700</v>
       </c>
       <c r="Y81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,8 +6609,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6296,8 +6694,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6783,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6872,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6961,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +7050,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +7139,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>5200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>5600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>7100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,40 +7265,42 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6885,31 +7327,37 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-200</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7439,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7528,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>400</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-500</v>
       </c>
       <c r="X94" s="3">
         <v>-400</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="Z94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,13 +7654,15 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-300</v>
+        <v>-1400</v>
       </c>
       <c r="E96" s="3">
         <v>-300</v>
@@ -7239,13 +7707,13 @@
         <v>-300</v>
       </c>
       <c r="S96" s="3">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
       <c r="T96" s="3">
         <v>-300</v>
       </c>
       <c r="U96" s="3">
-        <v>-300</v>
+        <v>-1500</v>
       </c>
       <c r="V96" s="3">
         <v>-300</v>
@@ -7271,8 +7739,14 @@
       <c r="AC96" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7828,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7917,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,13 +8006,19 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-300</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
         <v>-300</v>
@@ -7538,73 +8030,79 @@
         <v>-300</v>
       </c>
       <c r="H100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q100" s="3">
         <v>-300</v>
       </c>
       <c r="R100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-1500</v>
       </c>
       <c r="T100" s="3">
         <v>-300</v>
       </c>
       <c r="U100" s="3">
-        <v>-400</v>
+        <v>-1500</v>
       </c>
       <c r="V100" s="3">
         <v>-300</v>
       </c>
       <c r="W100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X100" s="3">
         <v>-300</v>
       </c>
       <c r="Y100" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="Z100" s="3">
         <v>-300</v>
       </c>
       <c r="AA100" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="AB100" s="3">
         <v>-300</v>
       </c>
       <c r="AC100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7686,87 +8184,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-8400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-6300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>4700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>6800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>3400</v>
       </c>
     </row>
